--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Guca2a</t>
+  </si>
+  <si>
+    <t>Gucy2c</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Guca2a</t>
-  </si>
-  <si>
-    <t>Gucy2c</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>25</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.486124</v>
+      </c>
+      <c r="H2">
+        <v>1.458372</v>
+      </c>
+      <c r="I2">
+        <v>0.2724081688156144</v>
+      </c>
+      <c r="J2">
+        <v>0.2724081688156144</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.765631</v>
-      </c>
-      <c r="H2">
-        <v>2.296893</v>
-      </c>
-      <c r="I2">
-        <v>0.478748276519711</v>
-      </c>
-      <c r="J2">
-        <v>0.478748276519711</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.027268666666667</v>
+        <v>0.2121096666666666</v>
       </c>
       <c r="N2">
-        <v>3.081806</v>
+        <v>0.6363289999999999</v>
       </c>
       <c r="O2">
-        <v>0.759365522733612</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.759365522733612</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.7865087365286667</v>
+        <v>0.1031115995986667</v>
       </c>
       <c r="R2">
-        <v>7.078578628758001</v>
+        <v>0.9280043963879999</v>
       </c>
       <c r="S2">
-        <v>0.3635449352572062</v>
+        <v>0.2724081688156144</v>
       </c>
       <c r="T2">
-        <v>0.3635449352572062</v>
+        <v>0.2724081688156144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,45 +605,45 @@
         <v>2.296893</v>
       </c>
       <c r="I3">
-        <v>0.478748276519711</v>
+        <v>0.4290348526270409</v>
       </c>
       <c r="J3">
-        <v>0.478748276519711</v>
+        <v>0.4290348526270409</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32553</v>
+        <v>0.2121096666666666</v>
       </c>
       <c r="N3">
-        <v>0.9765900000000001</v>
+        <v>0.6363289999999999</v>
       </c>
       <c r="O3">
-        <v>0.240634477266388</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.240634477266388</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.24923585943</v>
+        <v>0.1623977361996666</v>
       </c>
       <c r="R3">
-        <v>2.24312273487</v>
+        <v>1.461579625797</v>
       </c>
       <c r="S3">
-        <v>0.1152033412625048</v>
+        <v>0.4290348526270409</v>
       </c>
       <c r="T3">
-        <v>0.1152033412625048</v>
+        <v>0.4290348526270409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -661,232 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6104059999999999</v>
+        <v>0.5327876666666667</v>
       </c>
       <c r="H4">
-        <v>1.831218</v>
+        <v>1.598363</v>
       </c>
       <c r="I4">
-        <v>0.3816862437352859</v>
+        <v>0.2985569785573446</v>
       </c>
       <c r="J4">
-        <v>0.3816862437352859</v>
+        <v>0.2985569785573447</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.027268666666667</v>
+        <v>0.2121096666666666</v>
       </c>
       <c r="N4">
-        <v>3.081806</v>
+        <v>0.6363289999999999</v>
       </c>
       <c r="O4">
-        <v>0.759365522733612</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.759365522733612</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.6270509577453334</v>
+        <v>0.1130094143807778</v>
       </c>
       <c r="R4">
-        <v>5.643458619707999</v>
+        <v>1.017084729427</v>
       </c>
       <c r="S4">
-        <v>0.2898393739942742</v>
+        <v>0.2985569785573446</v>
       </c>
       <c r="T4">
-        <v>0.2898393739942742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.6104059999999999</v>
-      </c>
-      <c r="H5">
-        <v>1.831218</v>
-      </c>
-      <c r="I5">
-        <v>0.3816862437352859</v>
-      </c>
-      <c r="J5">
-        <v>0.3816862437352859</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.32553</v>
-      </c>
-      <c r="N5">
-        <v>0.9765900000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.240634477266388</v>
-      </c>
-      <c r="P5">
-        <v>0.240634477266388</v>
-      </c>
-      <c r="Q5">
-        <v>0.19870546518</v>
-      </c>
-      <c r="R5">
-        <v>1.78834918662</v>
-      </c>
-      <c r="S5">
-        <v>0.09184686974101168</v>
-      </c>
-      <c r="T5">
-        <v>0.09184686974101169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.223198</v>
-      </c>
-      <c r="H6">
-        <v>0.669594</v>
-      </c>
-      <c r="I6">
-        <v>0.1395654797450031</v>
-      </c>
-      <c r="J6">
-        <v>0.1395654797450031</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.027268666666667</v>
-      </c>
-      <c r="N6">
-        <v>3.081806</v>
-      </c>
-      <c r="O6">
-        <v>0.759365522733612</v>
-      </c>
-      <c r="P6">
-        <v>0.759365522733612</v>
-      </c>
-      <c r="Q6">
-        <v>0.2292843118626667</v>
-      </c>
-      <c r="R6">
-        <v>2.063558806764</v>
-      </c>
-      <c r="S6">
-        <v>0.1059812134821316</v>
-      </c>
-      <c r="T6">
-        <v>0.1059812134821316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.223198</v>
-      </c>
-      <c r="H7">
-        <v>0.669594</v>
-      </c>
-      <c r="I7">
-        <v>0.1395654797450031</v>
-      </c>
-      <c r="J7">
-        <v>0.1395654797450031</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.32553</v>
-      </c>
-      <c r="N7">
-        <v>0.9765900000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.240634477266388</v>
-      </c>
-      <c r="P7">
-        <v>0.240634477266388</v>
-      </c>
-      <c r="Q7">
-        <v>0.07265764494000002</v>
-      </c>
-      <c r="R7">
-        <v>0.6539188044600001</v>
-      </c>
-      <c r="S7">
-        <v>0.03358426626287148</v>
-      </c>
-      <c r="T7">
-        <v>0.03358426626287148</v>
+        <v>0.2985569785573447</v>
       </c>
     </row>
   </sheetData>
